--- a/PVPlayTool/Data/DaS_Spells.xlsx
+++ b/PVPlayTool/Data/DaS_Spells.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>SpellName</t>
   </si>
@@ -252,6 +252,222 @@
   </si>
   <si>
     <t>AttReq</t>
+  </si>
+  <si>
+    <t>ImagePath</t>
+  </si>
+  <si>
+    <t>tex_DaS_SoulArrow.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_GreatSoulArrow.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_HeavySoulArrow.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_GreatHeavySoulArrow.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_HomingSoulmass.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_Hush.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_CastLight.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_SoulSpear.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_CrystalSoulSpear.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_CrystalMagicWeapon.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_HomingCrystalSoulmass.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_Remedy.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_ResistCurse.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_Repair.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_HiddenBody.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_Chameleon.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_HiddenWeapon.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_MagicShield.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_StrongMagicShield.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_MagicWeapon.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_GreatMagicWeapon.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_AuralDecoy.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_WhiteDragonBreath.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_FallControl.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_DarkOrb.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_DarkBead.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_DarkFog.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_Pursuers.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_Force.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_EmitForce.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_Heal.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_GreatHealExcerpt.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_GreatHeal.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_SoothingSunlight.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_Replenishment.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_BountifulSunlight.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_LightningSpear.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_GreatLightningSpear.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_SunlightSpear.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_Homeward.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_MagicBarrier.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_GreatMagicBarrier.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_SeekGuidance.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_KarmicJustice.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_DarkmoonBlade.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_TranquilWalkofPeace.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_VowofSilence.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_GravelordSwordDance.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_GravelordGreatswordDance.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_SunlightBlade.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_Fireball.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_FireOrb.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_GreatFireball.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_FlashSweat.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_Combustion.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_GreatCombustion.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_FireWhip.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_ChaosFireWhip.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_FireSurge.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_AcidSurge.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_Firestorm.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_ChaosStorm.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_FireTempest.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_GreatChaosFireball.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_PowerWithin.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_IronFlesh.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_PoisonMist.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_ToxicMist.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_UndeadRapport.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_BlackFlame.png</t>
+  </si>
+  <si>
+    <t>tex_DaS_WrathOfTheGods.png</t>
   </si>
 </sst>
 </file>
@@ -578,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,9 +806,11 @@
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,8 +826,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -625,8 +846,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -642,8 +866,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -659,8 +886,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -676,8 +906,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -693,8 +926,11 @@
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -710,8 +946,11 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -727,8 +966,11 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -744,8 +986,11 @@
       <c r="E9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -761,8 +1006,11 @@
       <c r="E10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -778,8 +1026,11 @@
       <c r="E11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -795,8 +1046,11 @@
       <c r="E12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -812,8 +1066,11 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -829,8 +1086,11 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -846,8 +1106,11 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -863,8 +1126,11 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -880,8 +1146,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -897,8 +1166,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -914,8 +1186,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -931,8 +1206,11 @@
       <c r="E20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -948,8 +1226,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -965,8 +1246,11 @@
       <c r="E22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -982,8 +1266,11 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -999,8 +1286,11 @@
       <c r="E24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1016,8 +1306,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1033,8 +1326,11 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1050,8 +1346,11 @@
       <c r="E27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1067,8 +1366,11 @@
       <c r="E28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1084,8 +1386,11 @@
       <c r="E29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1101,8 +1406,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1118,8 +1426,11 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1135,8 +1446,11 @@
       <c r="E32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1152,8 +1466,11 @@
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1169,8 +1486,11 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1186,8 +1506,11 @@
       <c r="E35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1203,8 +1526,11 @@
       <c r="E36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1220,8 +1546,11 @@
       <c r="E37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1237,8 +1566,11 @@
       <c r="E38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1254,8 +1586,11 @@
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1271,8 +1606,11 @@
       <c r="E40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1288,8 +1626,11 @@
       <c r="E41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1305,8 +1646,11 @@
       <c r="E42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1322,8 +1666,11 @@
       <c r="E43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1339,8 +1686,11 @@
       <c r="E44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1356,8 +1706,11 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1373,8 +1726,11 @@
       <c r="E46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1390,8 +1746,11 @@
       <c r="E47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1407,8 +1766,11 @@
       <c r="E48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1424,8 +1786,11 @@
       <c r="E49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -1441,8 +1806,11 @@
       <c r="E50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1458,8 +1826,11 @@
       <c r="E51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1475,8 +1846,11 @@
       <c r="E52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -1492,8 +1866,11 @@
       <c r="E53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1509,8 +1886,11 @@
       <c r="E54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -1526,8 +1906,11 @@
       <c r="E55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -1543,8 +1926,11 @@
       <c r="E56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1560,8 +1946,11 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -1577,8 +1966,11 @@
       <c r="E58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -1594,8 +1986,11 @@
       <c r="E59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -1611,8 +2006,11 @@
       <c r="E60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -1628,8 +2026,11 @@
       <c r="E61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -1645,8 +2046,11 @@
       <c r="E62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1662,8 +2066,11 @@
       <c r="E63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -1679,8 +2086,11 @@
       <c r="E64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -1696,8 +2106,11 @@
       <c r="E65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -1713,8 +2126,11 @@
       <c r="E66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -1730,8 +2146,11 @@
       <c r="E67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -1747,8 +2166,11 @@
       <c r="E68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -1764,8 +2186,11 @@
       <c r="E69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -1781,8 +2206,11 @@
       <c r="E70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -1798,8 +2226,11 @@
       <c r="E71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -1814,6 +2245,9 @@
       </c>
       <c r="E72">
         <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
